--- a/Assets/Data/Excels/Ability.xlsx
+++ b/Assets/Data/Excels/Ability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9577FD15-0E6D-4EAC-AAD5-75983A4D4D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA1F12D-160A-475E-AEDC-4D5CA3D887ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31440" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32130" yWindow="3195" windowWidth="21600" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,14 @@
   </si>
   <si>
     <t>WEAPON_SLASH_PROJECTILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE_ARROW_PROJECTILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPON_ARROW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +440,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,6 +518,20 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>50002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>51000</v>

--- a/Assets/Data/Excels/Ability.xlsx
+++ b/Assets/Data/Excels/Ability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA1F12D-160A-475E-AEDC-4D5CA3D887ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC77DAD1-1C41-4A6B-B98D-4C41C1AF4D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32130" yWindow="3195" windowWidth="21600" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,13 @@
   </si>
   <si>
     <t>WEAPON_ARROW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEAPON_STING</t>
+  </si>
+  <si>
+    <t>BE_STING</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +447,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,6 +539,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>50003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>51000</v>

--- a/Assets/Data/Excels/Ability.xlsx
+++ b/Assets/Data/Excels/Ability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TowerOfInfinity\Assets\Data\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC77DAD1-1C41-4A6B-B98D-4C41C1AF4D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98B57E7-4D11-497B-B88C-5F1AC19E292B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,30 +75,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ActiveSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACTIVE_SKILL_SLASH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PassiveSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BE_HEAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSIVE_SKILL_HEAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BE_SLASH_PROJECTILE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,6 +99,127 @@
   </si>
   <si>
     <t>BE_STING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>TargetCount</t>
+  </si>
+  <si>
+    <t>enum:BattleEventTriggerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:BattleEventTargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitEffectPrefabName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slash_Projectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile</t>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slash_Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow_Projectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sting_Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,2,2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2.8,2.6,2.4,2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2.5,2,1.5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoolTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -458,10 +559,16 @@
     <col min="5" max="5" width="36.25" customWidth="1"/>
     <col min="6" max="6" width="34.5" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
-    <col min="9" max="9" width="38" customWidth="1"/>
+    <col min="8" max="8" width="30.375" customWidth="1"/>
+    <col min="9" max="9" width="28.125" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="15.75" customWidth="1"/>
+    <col min="13" max="13" width="15.375" customWidth="1"/>
+    <col min="14" max="14" width="18.125" customWidth="1"/>
+    <col min="16" max="16" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -469,7 +576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -482,8 +589,38 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -491,13 +628,43 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>50000</v>
       </c>
@@ -510,75 +677,167 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>50001</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>50002</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50003</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>51000</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>52000</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Excels/Ability.xlsx
+++ b/Assets/Data/Excels/Ability.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TowerOfInfinity\Assets\Data\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98B57E7-4D11-497B-B88C-5F1AC19E292B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D36FAA-CB41-4E64-A876-77C5BE7AB8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29655" yWindow="3195" windowWidth="21600" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,68 +102,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float[]</t>
-  </si>
-  <si>
-    <t>Speed</t>
+    <t>enum:BattleEventTriggerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:BattleEventTargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitEffectPrefabName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slash_Projectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile</t>
   </si>
   <si>
     <t>Range</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>TargetCount</t>
-  </si>
-  <si>
-    <t>enum:BattleEventTriggerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum:BattleEventTargetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriggerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TargetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrefabName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitEffectPrefabName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Projectile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slash_Projectile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Projectile</t>
-  </si>
-  <si>
-    <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -180,46 +162,6 @@
   </si>
   <si>
     <t>Sting_Collider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,2,2,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,10,10,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,2,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2.8,2.6,2.4,2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,2,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2.5,2,1.5,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoolTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -568,7 +510,7 @@
     <col min="16" max="16" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -576,7 +518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -590,10 +532,10 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -601,26 +543,8 @@
       <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -634,37 +558,19 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
         <v>24</v>
       </c>
-      <c r="N3" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>50000</v>
       </c>
@@ -678,37 +584,19 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>50001</v>
       </c>
@@ -722,37 +610,19 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>50002</v>
       </c>
@@ -766,37 +636,19 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
       <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50003</v>
       </c>
@@ -810,34 +662,16 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Excels/Ability.xlsx
+++ b/Assets/Data/Excels/Ability.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TowerOfInfinity\Assets\Data\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D36FAA-CB41-4E64-A876-77C5BE7AB8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80B54E0-B54E-4C82-A52B-DF01498316F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29655" yWindow="3195" windowWidth="21600" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="2475" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WEAPON_SLASH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BattleEventDefine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BE_SLASH_RANGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AbilityType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,18 +71,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BE_SLASH_PROJECTILE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WEAPON_SLASH_PROJECTILE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BE_ARROW_PROJECTILE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WEAPON_ARROW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +82,6 @@
     <t>WEAPON_STING</t>
   </si>
   <si>
-    <t>BE_STING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum:BattleEventTriggerType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,14 +125,6 @@
     <t>Projectile</t>
   </si>
   <si>
-    <t>Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slash_Hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Arrow_Projectile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,6 +134,10 @@
   </si>
   <si>
     <t>Sting_Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE_DAMAGE_ONE_SHOT_ATTACK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -526,16 +502,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -552,22 +528,22 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -575,25 +551,25 @@
         <v>50000</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -601,25 +577,25 @@
         <v>50001</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -627,51 +603,25 @@
         <v>50002</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>50003</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Excels/Ability.xlsx
+++ b/Assets/Data/Excels/Ability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80B54E0-B54E-4C82-A52B-DF01498316F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D94D185-E40D-4AB4-B04E-EC71FB5D9E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="2475" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Single</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Slash_Projectile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +134,13 @@
   </si>
   <si>
     <t>BE_DAMAGE_ONE_SHOT_ATTACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>Multiple</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -557,19 +560,19 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -583,19 +586,19 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -609,19 +612,19 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Excels/Ability.xlsx
+++ b/Assets/Data/Excels/Ability.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TowerOfInfinity\Assets\Data\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D94D185-E40D-4AB4-B04E-EC71FB5D9E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AD48AF-FA5E-44D5-877A-63BEE10B90C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29790" yWindow="3195" windowWidth="25260" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -51,14 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BattleEventDefine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleEvent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AbilityType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,6 +133,14 @@
   </si>
   <si>
     <t>Multiple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleEvents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleEventDefine[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -505,16 +505,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -531,22 +531,22 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -554,25 +554,25 @@
         <v>50000</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -580,25 +580,25 @@
         <v>50001</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -606,25 +606,25 @@
         <v>50002</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Excels/Ability.xlsx
+++ b/Assets/Data/Excels/Ability.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TowerOfInfinity\Assets\Data\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AD48AF-FA5E-44D5-877A-63BEE10B90C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18F08B4-0809-4D30-867F-3B1FF354C8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29790" yWindow="3195" windowWidth="25260" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,18 +129,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Multiple</t>
-  </si>
-  <si>
-    <t>Multiple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BattleEvents</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BattleEventDefine[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +466,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -508,7 +505,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -534,7 +531,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -566,7 +563,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -592,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -618,7 +615,7 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>

--- a/Assets/Data/Excels/Ability.xlsx
+++ b/Assets/Data/Excels/Ability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18F08B4-0809-4D30-867F-3B1FF354C8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBA8609-4342-4185-92E3-20E42CDC88CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="12435" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Slash_Projectile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,18 +109,10 @@
     <t>Projectile</t>
   </si>
   <si>
-    <t>Arrow_Projectile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Collider</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sting_Collider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BE_DAMAGE_ONE_SHOT_ATTACK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +126,18 @@
   </si>
   <si>
     <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability/Slash_Projectile/Slash_Projectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability/Arrow_Projectile/Arrow_Projectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability/Sting_Collider/Sting_Collider</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -505,7 +505,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -531,7 +531,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -557,19 +557,19 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -583,19 +583,19 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -609,19 +609,19 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
